--- a/Design/ChangeTracker.xlsx
+++ b/Design/ChangeTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8635FC8B-C574-4A10-8C76-A6E0C59956BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58FDE4-00A6-4D1C-9D42-90829637E087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,22 +25,115 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>Change made</t>
-  </si>
-  <si>
-    <t>Who</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>page desing</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Game Desing</t>
+  </si>
+  <si>
+    <t>Staff Page Table</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Report writing</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <t>Column5</t>
+  </si>
+  <si>
+    <t>Column6</t>
+  </si>
+  <si>
+    <t>Column7</t>
+  </si>
+  <si>
+    <t>Column8</t>
+  </si>
+  <si>
+    <t>Column9</t>
+  </si>
+  <si>
+    <t>Column10</t>
+  </si>
+  <si>
+    <t>Column11</t>
+  </si>
+  <si>
+    <t>Column12</t>
+  </si>
+  <si>
+    <t>Column13</t>
+  </si>
+  <si>
+    <t>Column14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,13 +141,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -69,8 +174,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +192,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D23C02CB-6A76-478F-8378-DE0595159DD9}" name="Table1" displayName="Table1" ref="A1:N9" totalsRowShown="0">
+  <autoFilter ref="A1:N9" xr:uid="{CBEE787B-BB66-4109-9351-9D66227BDA5F}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{3D401E6B-8332-4E02-88A2-93159F39FD64}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{4EDFECEF-8C3D-4C49-BB7B-3012AEDFADE5}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{DBC07BB5-6390-48BA-9148-F1BE1A37300B}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{3F0E27C2-A61F-4A1F-98D3-EF0203888C3F}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{152D6361-5DE4-4332-A07B-85CC1E6B8CAD}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{FF49863B-7158-4C1D-B706-96B0D7E519AD}" name="Column6"/>
+    <tableColumn id="7" xr3:uid="{CBAE8725-1C0A-4C66-94F2-1283089F6759}" name="Column7"/>
+    <tableColumn id="8" xr3:uid="{1F2682DC-8719-4B2A-B722-2B3B104E0675}" name="Column8"/>
+    <tableColumn id="9" xr3:uid="{E4724A02-C7BF-48FE-94D8-209FEAD67544}" name="Column9"/>
+    <tableColumn id="10" xr3:uid="{295746AF-F5E4-47AB-B3F6-97DC8BB820BB}" name="Column10"/>
+    <tableColumn id="11" xr3:uid="{F9526812-D2E7-4A4E-89B6-B2846CD5785C}" name="Column11"/>
+    <tableColumn id="12" xr3:uid="{E45B4643-AA0A-427D-80AA-416A51418B78}" name="Column12"/>
+    <tableColumn id="13" xr3:uid="{A294B086-4C56-4D2D-9E61-768ED3C51FB6}" name="Column13"/>
+    <tableColumn id="14" xr3:uid="{4DD73B5A-553D-4DA5-B324-E75E2B15012D}" name="Column14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,31 +480,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="9" width="11" customWidth="1"/>
+    <col min="10" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Design/ChangeTracker.xlsx
+++ b/Design/ChangeTracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhodr\Desktop\MMP\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB58FDE4-00A6-4D1C-9D42-90829637E087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AD5D1-1014-4D56-AE45-793A1AF01C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -148,7 +148,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,9 +180,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,7 +490,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,12 +619,14 @@
         <v>13</v>
       </c>
       <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
